--- a/tests/expected_data/ТЗ_7Q31_РЕМОНТ_Кабельно-проводниковая продукция.xlsx
+++ b/tests/expected_data/ТЗ_7Q31_РЕМОНТ_Кабельно-проводниковая продукция.xlsx
@@ -255,7 +255,7 @@
 Новогорьковская ТЭЦ, 607650, Нижегородская обл, г. Кстово, промзона</t>
   </si>
   <si>
-    <t>Технический директор - главный инженер Новогорьковской ТЭЦ  ________________________________________ / /</t>
+    <t>Технический директор - главный инженер Новогорьковской ТЭЦ __________________________________________ / /</t>
   </si>
 </sst>
 </file>
